--- a/prep/TR/tr_sustainability_pat2021.xlsx
+++ b/prep/TR/tr_sustainability_pat2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vapiz\Dropbox\Ohi\Archivos del toolbox\prep\TR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pat\prep\TR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C425FFE5-AFB2-40FF-8F4A-7CEEDC475C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9756694-5218-4320-9471-BC891D194D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{562066D2-C4B7-4C2D-8375-81FDA0FEF889}"/>
+    <workbookView xWindow="2880" yWindow="2880" windowWidth="14400" windowHeight="8182" xr2:uid="{562066D2-C4B7-4C2D-8375-81FDA0FEF889}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>rgn_id</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>year</t>
   </si>
 </sst>
 </file>
@@ -395,418 +389,751 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC522015-2A22-4990-88B1-D9F2A3DE6AD2}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B1">
+        <v>2017</v>
+      </c>
+      <c r="C1">
+        <v>2018</v>
+      </c>
+      <c r="D1">
+        <v>2019</v>
+      </c>
+      <c r="E1">
+        <v>2020</v>
+      </c>
+      <c r="F1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1.0089999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1.0066889632107023</v>
+      </c>
+      <c r="F2">
+        <v>1.006472491909385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1.0149999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1.0138888888888888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1.012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1.0084388185654007</v>
+      </c>
+      <c r="F6">
+        <v>1.0081300813008129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1.012</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1.0099009900990099</v>
+      </c>
+      <c r="F7">
+        <v>1.0087719298245614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>1.044</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1.0341880341880343</v>
+      </c>
+      <c r="F15">
+        <v>1.0303030303030303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>1.018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1.0104790419161676</v>
+      </c>
+      <c r="F19">
+        <v>1.0136612021857923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1.0072727272727273</v>
+      </c>
+      <c r="E23">
+        <v>1.0176565008025682</v>
+      </c>
+      <c r="F23">
+        <v>1.0167427701674276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>1.002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1.0017123287671232</v>
+      </c>
+      <c r="F24">
+        <v>1.0015384615384615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>1.097</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1.0857142857142856</v>
+      </c>
+      <c r="F34">
+        <v>1.0769230769230769</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
         <v>1</v>
       </c>
     </row>
